--- a/Development/javacore.xlsx
+++ b/Development/javacore.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Java Object Class</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>جمع</t>
+  </si>
+  <si>
+    <t>1399/01/23</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -244,11 +247,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,10 +542,10 @@
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -575,10 +577,13 @@
         <v>31</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -597,12 +602,13 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="10">
-        <f t="shared" ref="K2:K24" si="0">SUM(D2:J2)</f>
+      <c r="K2" s="2"/>
+      <c r="L2" s="8">
+        <f t="shared" ref="L2:L24" si="0">SUM(D2:K2)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -621,12 +627,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="10">
+      <c r="K3" s="2"/>
+      <c r="L3" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -649,12 +656,13 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="10">
+      <c r="K4" s="2"/>
+      <c r="L4" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,12 +683,13 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="10">
+      <c r="K5" s="2"/>
+      <c r="L5" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -699,12 +708,13 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="10">
+      <c r="K6" s="2"/>
+      <c r="L6" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -723,13 +733,14 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="10">
+      <c r="K7" s="2"/>
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -748,14 +759,17 @@
       <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -770,14 +784,17 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -793,12 +810,15 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -819,13 +839,14 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="10">
+      <c r="K11" s="2"/>
+      <c r="L11" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -848,14 +869,17 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -871,12 +895,15 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="2">
+        <v>4</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -893,12 +920,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="10">
+      <c r="K14" s="2"/>
+      <c r="L14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -915,12 +943,13 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="10">
+      <c r="K15" s="2"/>
+      <c r="L15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -937,12 +966,13 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="10">
+      <c r="K16" s="2"/>
+      <c r="L16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -959,12 +989,13 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="10">
+      <c r="K17" s="2"/>
+      <c r="L17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -981,12 +1012,13 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="10">
+      <c r="K18" s="2"/>
+      <c r="L18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1003,12 +1035,13 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="10">
+      <c r="K19" s="2"/>
+      <c r="L19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1025,12 +1058,13 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="10">
+      <c r="K20" s="2"/>
+      <c r="L20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1047,12 +1081,13 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="10">
+      <c r="K21" s="2"/>
+      <c r="L21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1069,12 +1104,13 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="10">
+      <c r="K22" s="2"/>
+      <c r="L22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1091,12 +1127,13 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="10">
+      <c r="K23" s="2"/>
+      <c r="L23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1113,51 +1150,56 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="10">
+      <c r="K24" s="2"/>
+      <c r="L24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
         <f>SUM(C2:C24)</f>
         <v>235</v>
       </c>
-      <c r="D25" s="10">
-        <f t="shared" ref="D25:J25" si="1">SUM(D2:D24)</f>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25:K25" si="1">SUM(D2:D24)</f>
         <v>10</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="8">
+        <f t="shared" ref="J25" si="2">SUM(J2:J24)</f>
+        <v>9</v>
+      </c>
+      <c r="K25" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="10">
-        <f>SUM(D25:J25)</f>
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="L25" s="8">
+        <f>SUM(D25:K25)</f>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Development/javacore.xlsx
+++ b/Development/javacore.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Java Object Class</t>
   </si>
@@ -135,13 +135,22 @@
   </si>
   <si>
     <t>1399/01/23</t>
+  </si>
+  <si>
+    <t>1399/01/24</t>
+  </si>
+  <si>
+    <t>1399/01/26</t>
+  </si>
+  <si>
+    <t>1399/01/27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +184,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -251,6 +267,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,10 +559,10 @@
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -580,10 +597,19 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -603,12 +629,15 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="8">
-        <f t="shared" ref="L2:L24" si="0">SUM(D2:K2)</f>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="8">
+        <f t="shared" ref="O2:O24" si="0">SUM(D2:N2)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -628,12 +657,15 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="8">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -657,12 +689,15 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="8">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -684,12 +719,15 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="8">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -709,12 +747,15 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="8">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -734,12 +775,15 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="8">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -763,12 +807,15 @@
         <v>3</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="8">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -788,20 +835,23 @@
         <v>1</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="8">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -813,12 +863,17 @@
       <c r="K10" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -840,12 +895,15 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="8">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -873,13 +931,16 @@
         <v>5</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="8">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -898,13 +959,18 @@
       <c r="K13" s="2">
         <v>4</v>
       </c>
-      <c r="L13" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="L13" s="2">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -921,12 +987,21 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" s="2">
+        <v>6</v>
+      </c>
+      <c r="O14" s="8">
+        <f>SUM(D14:N14)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -944,13 +1019,16 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="8">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -967,12 +1045,17 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>5</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -990,12 +1073,15 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="8">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1013,12 +1099,15 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="8">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1036,12 +1125,15 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="8">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1059,12 +1151,15 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="8">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1082,12 +1177,15 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="8">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1105,12 +1203,15 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="8">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1128,12 +1229,15 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="8">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1151,19 +1255,22 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="8">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8">
         <f>SUM(C2:C24)</f>
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" ref="D25:K25" si="1">SUM(D2:D24)</f>
@@ -1198,8 +1305,20 @@
         <v>9</v>
       </c>
       <c r="L25" s="8">
-        <f>SUM(D25:K25)</f>
-        <v>68</v>
+        <f t="shared" ref="L25:M25" si="3">SUM(L2:L24)</f>
+        <v>6</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" ref="N25" si="4">SUM(N2:N24)</f>
+        <v>11</v>
+      </c>
+      <c r="O25" s="8">
+        <f>SUM(D25:N25)</f>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Development/javacore.xlsx
+++ b/Development/javacore.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>Java Object Class</t>
   </si>
@@ -77,21 +77,12 @@
     <t>Java Collections</t>
   </si>
   <si>
-    <t>Java JDBC</t>
-  </si>
-  <si>
     <t>Java 9 Features</t>
   </si>
   <si>
     <t>Java 8 Features</t>
   </si>
   <si>
-    <t>Java 7 Features</t>
-  </si>
-  <si>
-    <t>Java 4/5 Features</t>
-  </si>
-  <si>
     <t>RMI (Remote Method Invocation)</t>
   </si>
   <si>
@@ -144,13 +135,106 @@
   </si>
   <si>
     <t>1399/01/27</t>
+  </si>
+  <si>
+    <t>1399/01/30</t>
+  </si>
+  <si>
+    <t>1399/01/31</t>
+  </si>
+  <si>
+    <t>1399/02/01</t>
+  </si>
+  <si>
+    <t>1399/02/02</t>
+  </si>
+  <si>
+    <t>1399/02/03</t>
+  </si>
+  <si>
+    <t>1399/02/09</t>
+  </si>
+  <si>
+    <t>1399/02/13</t>
+  </si>
+  <si>
+    <t>مانده</t>
+  </si>
+  <si>
+    <t>Java JDBC (25)</t>
+  </si>
+  <si>
+    <t>Java 7 Features (7)</t>
+  </si>
+  <si>
+    <t>Java 4/5 Features (8)</t>
+  </si>
+  <si>
+    <t>1399/02/14</t>
+  </si>
+  <si>
+    <t>1399/02/15</t>
+  </si>
+  <si>
+    <t>1399/02/16</t>
+  </si>
+  <si>
+    <t>1399/02/17</t>
+  </si>
+  <si>
+    <t>Spring Tutorial</t>
+  </si>
+  <si>
+    <t>Dependency Injection</t>
+  </si>
+  <si>
+    <t>Spring AOP</t>
+  </si>
+  <si>
+    <t>SPEL</t>
+  </si>
+  <si>
+    <t>Spring MVC Validation</t>
+  </si>
+  <si>
+    <t>Spring Security Tutorial</t>
+  </si>
+  <si>
+    <t>انجام شده</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B.Spring Boot Tutorial</t>
+  </si>
+  <si>
+    <t>B.Creating Project</t>
+  </si>
+  <si>
+    <t>B.Project Components</t>
+  </si>
+  <si>
+    <t>B.Spring Boot AOP</t>
+  </si>
+  <si>
+    <t>B.Spring Boot Database(jpa,h2)</t>
+  </si>
+  <si>
+    <t>B.SB Caching</t>
+  </si>
+  <si>
+    <t>B.Spring Boot Misc</t>
+  </si>
+  <si>
+    <t>B.Spring Boot - RESTful</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,20 +274,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +313,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,11 +343,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -267,7 +381,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +673,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,71 +686,113 @@
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="27" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:D25" si="0">SUM(F2:AA2)</f>
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="8">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -632,26 +801,41 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="8">
-        <f t="shared" ref="O2:O24" si="0">SUM(D2:N2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E25" si="1">C3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -660,359 +844,551 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5</v>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>11</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5</v>
-      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2">
         <v>3</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>5</v>
-      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
         <v>7</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>17</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>6</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="2">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
         <v>5</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>7</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
         <v>4</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>3</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>40</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="2">
+      <c r="O14" s="2">
         <v>3</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
         <v>6</v>
       </c>
-      <c r="O14" s="8">
-        <f>SUM(D14:N14)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="Q14" s="2">
+        <v>3</v>
+      </c>
+      <c r="R14" s="2">
+        <v>5</v>
+      </c>
+      <c r="S14" s="2">
+        <v>5</v>
+      </c>
+      <c r="T14" s="2">
+        <v>5</v>
+      </c>
+      <c r="U14" s="2">
+        <v>5</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2">
+        <v>5</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1022,23 +1398,42 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1047,26 +1442,43 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2">
         <v>5</v>
       </c>
-      <c r="O16" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="Q16" s="2">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1076,23 +1488,42 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2">
+        <v>3</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1102,23 +1533,50 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2">
+        <v>2</v>
+      </c>
+      <c r="T18" s="2">
+        <v>3</v>
+      </c>
+      <c r="U18" s="2">
+        <v>5</v>
+      </c>
+      <c r="V18" s="2">
+        <v>5</v>
+      </c>
+      <c r="W18" s="2">
+        <v>6</v>
+      </c>
+      <c r="X18" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1128,23 +1586,38 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <v>13</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1154,23 +1627,38 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <v>18</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1180,23 +1668,40 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1206,23 +1711,38 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="2">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1232,23 +1752,38 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1258,67 +1793,305 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8">
         <f>SUM(C2:C24)</f>
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" ref="D25:K25" si="1">SUM(D2:D24)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" ref="F25:M25" si="2">SUM(F2:F24)</f>
         <v>10</v>
       </c>
-      <c r="F25" s="8">
-        <f t="shared" si="1"/>
+      <c r="G25" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G25" s="8">
-        <f t="shared" si="1"/>
+      <c r="I25" s="8">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
+      <c r="J25" s="8">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I25" s="8">
-        <f t="shared" si="1"/>
+      <c r="K25" s="8">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J25" s="8">
-        <f t="shared" ref="J25" si="2">SUM(J2:J24)</f>
+      <c r="L25" s="8">
+        <f t="shared" ref="L25" si="3">SUM(L2:L24)</f>
         <v>9</v>
       </c>
-      <c r="K25" s="8">
-        <f t="shared" si="1"/>
+      <c r="M25" s="8">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L25" s="8">
-        <f t="shared" ref="L25:M25" si="3">SUM(L2:L24)</f>
+      <c r="N25" s="8">
+        <f t="shared" ref="N25:O25" si="4">SUM(N2:N24)</f>
         <v>6</v>
       </c>
-      <c r="M25" s="8">
-        <f t="shared" si="3"/>
+      <c r="O25" s="8">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="N25" s="8">
-        <f t="shared" ref="N25" si="4">SUM(N2:N24)</f>
+      <c r="P25" s="8">
+        <f t="shared" ref="P25:Q25" si="5">SUM(P2:P24)</f>
         <v>11</v>
       </c>
-      <c r="O25" s="8">
-        <f>SUM(D25:N25)</f>
-        <v>95</v>
+      <c r="Q25" s="8">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" ref="R25:S25" si="6">SUM(R2:R24)</f>
+        <v>5</v>
+      </c>
+      <c r="S25" s="8">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="T25" s="8">
+        <f t="shared" ref="T25:U25" si="7">SUM(T2:T24)</f>
+        <v>8</v>
+      </c>
+      <c r="U25" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="V25" s="8">
+        <f t="shared" ref="V25:W25" si="8">SUM(V2:V24)</f>
+        <v>5</v>
+      </c>
+      <c r="W25" s="8">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="X25" s="8">
+        <f t="shared" ref="X25:Y25" si="9">SUM(X2:X24)</f>
+        <v>7</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="8">
+        <f t="shared" ref="Z25:AA25" si="10">SUM(Z2:Z24)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="10">
+        <f>C25-D25</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>12</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8">
+        <f>SUM(C26:C39)</f>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Development/javacore.xlsx
+++ b/Development/javacore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\googleDrive\me\work\github\motaharinia\learning\Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\googleDrive\me\work\github\motaharinia\learning\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,9 +179,6 @@
     <t>1399/02/16</t>
   </si>
   <si>
-    <t>1399/02/17</t>
-  </si>
-  <si>
     <t>Spring Tutorial</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>B.Spring Boot - RESTful</t>
+  </si>
+  <si>
+    <t>1399/02/21</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="G20" sqref="G20"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +700,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>44</v>
@@ -769,7 +769,7 @@
         <v>50</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="8">
-        <f t="shared" ref="D2:D25" si="0">SUM(F2:AA2)</f>
+        <f t="shared" ref="D2:D24" si="0">SUM(F2:AA2)</f>
         <v>6</v>
       </c>
       <c r="E2" s="8">
@@ -1601,7 +1601,7 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1638,8 +1638,12 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="Z20" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1653,11 +1657,11 @@
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1680,9 +1684,15 @@
       <c r="X21" s="2">
         <v>1</v>
       </c>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="Y21" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -1820,12 +1830,12 @@
         <v>191</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>SUM(F25:AA25)</f>
+        <v>182</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25:M25" si="2">SUM(F2:F24)</f>
@@ -1905,27 +1915,27 @@
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" ref="Z25:AA25" si="10">SUM(Z2:Z24)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB25" s="10">
         <f>C25-D25</f>
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -1933,10 +1943,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2">
         <v>18</v>
@@ -1944,10 +1954,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -1956,10 +1966,10 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
@@ -1968,7 +1978,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>20</v>
@@ -1980,7 +1990,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>21</v>
@@ -1992,7 +2002,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>20</v>
@@ -2004,7 +2014,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -2016,7 +2026,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -2028,10 +2038,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2">
         <v>6</v>
@@ -2040,10 +2050,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -2052,7 +2062,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -2064,7 +2074,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -2075,7 +2085,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>20</v>

--- a/Development/javacore.xlsx
+++ b/Development/javacore.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>Java Object Class</t>
   </si>
@@ -228,13 +228,40 @@
   </si>
   <si>
     <t>1399/02/21</t>
+  </si>
+  <si>
+    <t>1399/02/22</t>
+  </si>
+  <si>
+    <t>1399/02/23</t>
+  </si>
+  <si>
+    <t>1399/02/24</t>
+  </si>
+  <si>
+    <t>1399/02/28</t>
+  </si>
+  <si>
+    <t>1399/02/29</t>
+  </si>
+  <si>
+    <t>1399/02/30</t>
+  </si>
+  <si>
+    <t>1399/02/31</t>
+  </si>
+  <si>
+    <t>1399/03/06</t>
+  </si>
+  <si>
+    <t>1399/03/07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,35 +299,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -380,19 +386,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,12 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="Z21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,10 +694,10 @@
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="27" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="36" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -771,8 +779,35 @@
       <c r="AA1" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -782,11 +817,11 @@
       <c r="C2" s="2">
         <v>6</v>
       </c>
-      <c r="D2" s="8">
-        <f t="shared" ref="D2:D24" si="0">SUM(F2:AA2)</f>
+      <c r="D2" s="12">
+        <f>SUM(F2:AJ2)</f>
         <v>6</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="12">
         <f>C2-D2</f>
         <v>0</v>
       </c>
@@ -814,8 +849,17 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -825,12 +869,12 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="8">
-        <f t="shared" si="0"/>
+      <c r="D3" s="12">
+        <f>SUM(F3:AJ3)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E25" si="1">C3-D3</f>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E39" si="0">C3-D3</f>
         <v>0</v>
       </c>
       <c r="F3" s="2">
@@ -857,8 +901,17 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -868,12 +921,12 @@
       <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
-        <f t="shared" si="0"/>
+      <c r="D4" s="12">
+        <f>SUM(F4:AJ4)</f>
         <v>9</v>
       </c>
-      <c r="E4" s="8">
-        <f t="shared" si="1"/>
+      <c r="E4" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
@@ -904,8 +957,17 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -915,12 +977,12 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
-        <f t="shared" si="0"/>
+      <c r="D5" s="12">
+        <f>SUM(F5:AJ5)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" si="1"/>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
@@ -949,8 +1011,17 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -960,12 +1031,12 @@
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
-        <f t="shared" si="0"/>
+      <c r="D6" s="12">
+        <f>SUM(F6:AJ6)</f>
         <v>3</v>
       </c>
-      <c r="E6" s="8">
-        <f t="shared" si="1"/>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="2"/>
@@ -992,8 +1063,17 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1003,12 +1083,12 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" si="0"/>
+      <c r="D7" s="12">
+        <f>SUM(F7:AJ7)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="8">
-        <f t="shared" si="1"/>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="2"/>
@@ -1035,8 +1115,17 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1046,12 +1135,12 @@
       <c r="C8" s="2">
         <v>11</v>
       </c>
-      <c r="D8" s="8">
-        <f t="shared" si="0"/>
+      <c r="D8" s="12">
+        <f>SUM(F8:AJ8)</f>
         <v>11</v>
       </c>
-      <c r="E8" s="8">
-        <f t="shared" si="1"/>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="2"/>
@@ -1082,8 +1171,17 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1093,12 +1191,12 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
+      <c r="D9" s="12">
+        <f>SUM(F9:AJ9)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="1"/>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="2"/>
@@ -1125,8 +1223,17 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1136,12 +1243,12 @@
       <c r="C10" s="2">
         <v>12</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
+      <c r="D10" s="12">
+        <f>SUM(F10:AJ10)</f>
         <v>12</v>
       </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="2"/>
@@ -1170,8 +1277,17 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1181,12 +1297,12 @@
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
+      <c r="D11" s="12">
+        <f>SUM(F11:AJ11)</f>
         <v>6</v>
       </c>
-      <c r="E11" s="8">
-        <f t="shared" si="1"/>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
@@ -1215,8 +1331,17 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1226,12 +1351,12 @@
       <c r="C12" s="2">
         <v>17</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="0"/>
+      <c r="D12" s="12">
+        <f>SUM(F12:AJ12)</f>
         <v>17</v>
       </c>
-      <c r="E12" s="8">
-        <f t="shared" si="1"/>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="2"/>
@@ -1266,8 +1391,17 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1277,12 +1411,12 @@
       <c r="C13" s="2">
         <v>7</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" si="0"/>
+      <c r="D13" s="12">
+        <f>SUM(F13:AJ13)</f>
         <v>7</v>
       </c>
-      <c r="E13" s="8">
-        <f t="shared" si="1"/>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="2"/>
@@ -1311,8 +1445,17 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1322,12 +1465,12 @@
       <c r="C14" s="2">
         <v>40</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" si="0"/>
+      <c r="D14" s="12">
+        <f>SUM(F14:AJ14)</f>
         <v>40</v>
       </c>
-      <c r="E14" s="8">
-        <f t="shared" si="1"/>
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="2"/>
@@ -1370,8 +1513,17 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1381,12 +1533,12 @@
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="8">
-        <f t="shared" si="0"/>
+      <c r="D15" s="12">
+        <f>SUM(F15:AJ15)</f>
         <v>2</v>
       </c>
-      <c r="E15" s="8">
-        <f t="shared" si="1"/>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="2"/>
@@ -1415,8 +1567,17 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1426,12 +1587,12 @@
       <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" s="8">
-        <f t="shared" si="0"/>
+      <c r="D16" s="12">
+        <f>SUM(F16:AJ16)</f>
         <v>7</v>
       </c>
-      <c r="E16" s="8">
-        <f t="shared" si="1"/>
+      <c r="E16" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="2"/>
@@ -1460,8 +1621,17 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1471,12 +1641,12 @@
       <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="8">
-        <f t="shared" si="0"/>
+      <c r="D17" s="12">
+        <f>SUM(F17:AJ17)</f>
         <v>6</v>
       </c>
-      <c r="E17" s="8">
-        <f t="shared" si="1"/>
+      <c r="E17" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="2"/>
@@ -1505,8 +1675,17 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1516,12 +1695,12 @@
       <c r="C18" s="2">
         <v>26</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" si="0"/>
+      <c r="D18" s="12">
+        <f>SUM(F18:AJ18)</f>
         <v>26</v>
       </c>
-      <c r="E18" s="8">
-        <f t="shared" si="1"/>
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="2"/>
@@ -1558,9 +1737,18 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1569,12 +1757,12 @@
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="1"/>
+      <c r="D19" s="12">
+        <f>SUM(F19:AJ19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
@@ -1599,8 +1787,17 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1610,12 +1807,12 @@
       <c r="C20" s="2">
         <v>13</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="0"/>
+      <c r="D20" s="12">
+        <f>SUM(F20:AJ20)</f>
         <v>13</v>
       </c>
-      <c r="E20" s="8">
-        <f t="shared" si="1"/>
+      <c r="E20" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="2"/>
@@ -1644,8 +1841,17 @@
       <c r="AA20" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1655,13 +1861,13 @@
       <c r="C21" s="2">
         <v>18</v>
       </c>
-      <c r="D21" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="D21" s="12">
+        <f>SUM(F21:AJ21)</f>
+        <v>17</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1693,9 +1899,20 @@
       <c r="AA21" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="AB21" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1704,12 +1921,12 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="1"/>
+      <c r="D22" s="12">
+        <f>SUM(F22:AJ22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="2"/>
@@ -1734,9 +1951,18 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1745,12 +1971,12 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="1"/>
+      <c r="D23" s="12">
+        <f>SUM(F23:AJ23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="2"/>
@@ -1775,8 +2001,17 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1786,12 +2021,12 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="1"/>
+      <c r="D24" s="12">
+        <f>SUM(F24:AJ24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="2"/>
@@ -1816,11 +2051,20 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" t="s">
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1829,272 +2073,883 @@
         <f>SUM(C2:C24)</f>
         <v>191</v>
       </c>
-      <c r="D25" s="8">
-        <f>SUM(F25:AA25)</f>
-        <v>182</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="D25" s="12">
+        <f>SUM(F25:AJ25)</f>
+        <v>189</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" ref="F25:M25" si="1">SUM(F2:F24)</f>
+        <v>10</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" ref="L25" si="2">SUM(L2:L24)</f>
+        <v>9</v>
+      </c>
+      <c r="M25" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F25" s="8">
-        <f t="shared" ref="F25:M25" si="2">SUM(F2:F24)</f>
+      <c r="N25" s="8">
+        <f t="shared" ref="N25:O25" si="3">SUM(N2:N24)</f>
+        <v>6</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G25" s="8">
-        <f t="shared" si="2"/>
+      <c r="P25" s="8">
+        <f t="shared" ref="P25:Q25" si="4">SUM(P2:P24)</f>
+        <v>11</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" ref="R25:S25" si="5">SUM(R2:R24)</f>
+        <v>5</v>
+      </c>
+      <c r="S25" s="8">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" si="2"/>
+      <c r="T25" s="8">
+        <f t="shared" ref="T25:U25" si="6">SUM(T2:T24)</f>
         <v>8</v>
       </c>
-      <c r="I25" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K25" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L25" s="8">
-        <f t="shared" ref="L25" si="3">SUM(L2:L24)</f>
-        <v>9</v>
-      </c>
-      <c r="M25" s="8">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="N25" s="8">
-        <f t="shared" ref="N25:O25" si="4">SUM(N2:N24)</f>
-        <v>6</v>
-      </c>
-      <c r="O25" s="8">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="P25" s="8">
-        <f t="shared" ref="P25:Q25" si="5">SUM(P2:P24)</f>
-        <v>11</v>
-      </c>
-      <c r="Q25" s="8">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R25" s="8">
-        <f t="shared" ref="R25:S25" si="6">SUM(R2:R24)</f>
-        <v>5</v>
-      </c>
-      <c r="S25" s="8">
+      <c r="U25" s="8">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="T25" s="8">
-        <f t="shared" ref="T25:U25" si="7">SUM(T2:T24)</f>
+      <c r="V25" s="8">
+        <f t="shared" ref="V25:W25" si="7">SUM(V2:V24)</f>
+        <v>5</v>
+      </c>
+      <c r="W25" s="8">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="X25" s="8">
+        <f t="shared" ref="X25:Y25" si="8">SUM(X2:X24)</f>
+        <v>7</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Z25" s="8">
+        <f t="shared" ref="Z25:AA25" si="9">SUM(Z2:Z24)</f>
         <v>8</v>
       </c>
-      <c r="U25" s="8">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="V25" s="8">
-        <f t="shared" ref="V25:W25" si="8">SUM(V2:V24)</f>
-        <v>5</v>
-      </c>
-      <c r="W25" s="8">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="X25" s="8">
-        <f t="shared" ref="X25:Y25" si="9">SUM(X2:X24)</f>
+      <c r="AA25" s="8">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="AB25" s="8">
+        <f t="shared" ref="AB25:AC25" si="10">SUM(AB2:AB24)</f>
         <v>7</v>
       </c>
-      <c r="Y25" s="8">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="Z25" s="8">
-        <f t="shared" ref="Z25:AA25" si="10">SUM(Z2:Z24)</f>
-        <v>8</v>
-      </c>
-      <c r="AA25" s="8">
+      <c r="AC25" s="8">
         <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="AB25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" ref="AD25:AE25" si="11">SUM(AD2:AD24)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" ref="AF25:AG25" si="12">SUM(AF2:AF24)</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" ref="AH25:AJ25" si="13">SUM(AH2:AH24)</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="8">
+        <f t="shared" ref="AI25" si="14">SUM(AI2:AI24)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="9">
         <f>C25-D25</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="D26" s="12">
+        <f>SUM(F26:AJ26)</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="D27" s="12">
+        <f>SUM(F27:AJ27)</f>
+        <v>18</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D28" s="12">
+        <f>SUM(F28:AJ28)</f>
+        <v>4</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ28" s="2"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="D29" s="12">
+        <f>SUM(F29:AJ29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
       </c>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="D30" s="12">
+        <f>SUM(F30:AJ30)</f>
+        <v>4</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="2">
         <v>12</v>
       </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="D31" s="12">
+        <f>SUM(F31:AJ31)</f>
+        <v>12</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="2">
         <v>4</v>
       </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="D32" s="12">
+        <f>SUM(F32:AJ32)</f>
+        <v>4</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="2">
         <v>5</v>
       </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="D33" s="12">
+        <f>SUM(F33:AJ33)</f>
+        <v>5</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="2">
         <v>13</v>
       </c>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="D34" s="12">
+        <f>SUM(F34:AJ34)</f>
+        <v>5</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="2">
         <v>6</v>
       </c>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="D35" s="12">
+        <f>SUM(F35:AJ35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
       </c>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="D36" s="12">
+        <f>SUM(F36:AJ36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="D37" s="12">
+        <f>SUM(F37:AJ37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="D38" s="12">
+        <f>SUM(F38:AJ38)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="12">
+        <f>SUM(F39:AJ39)</f>
+        <v>15</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2102,6 +2957,142 @@
       <c r="C40" s="8">
         <f>SUM(C26:C39)</f>
         <v>108</v>
+      </c>
+      <c r="D40" s="12">
+        <f>SUM(F40:AJ40)</f>
+        <v>70</v>
+      </c>
+      <c r="E40" s="12">
+        <f>C40-D40</f>
+        <v>38</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" ref="F40:S40" si="15">SUM(F26:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="8">
+        <f>SUM(T26:T39)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="8">
+        <f t="shared" ref="U40:AC40" si="16">SUM(U26:U39)</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="8">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AC40" s="8">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="AD40" s="8">
+        <f t="shared" ref="AD40:AE40" si="17">SUM(AD26:AD39)</f>
+        <v>15</v>
+      </c>
+      <c r="AE40" s="8">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" ref="AF40:AG40" si="18">SUM(AF26:AF39)</f>
+        <v>15</v>
+      </c>
+      <c r="AG40" s="8">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AH40" s="8">
+        <f t="shared" ref="AH40:AJ40" si="19">SUM(AH26:AH39)</f>
+        <v>5</v>
+      </c>
+      <c r="AI40" s="8">
+        <f t="shared" ref="AI40" si="20">SUM(AI26:AI39)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ40" s="8">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="AK40" s="13">
+        <f>C40-D40</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Development/javacore.xlsx
+++ b/Development/javacore.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>Java Object Class</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>1399/03/07</t>
+  </si>
+  <si>
+    <t>1399/03/10</t>
   </si>
 </sst>
 </file>
@@ -680,13 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK40"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Z21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AB21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="AK36" sqref="AK36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,10 +697,10 @@
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="36" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="37" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -806,8 +809,11 @@
       <c r="AJ1" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -818,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="12">
-        <f>SUM(F2:AJ2)</f>
+        <f t="shared" ref="D2:D40" si="0">SUM(F2:AK2)</f>
         <v>6</v>
       </c>
       <c r="E2" s="12">
@@ -858,8 +864,9 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -870,11 +877,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="12">
-        <f>SUM(F3:AJ3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E39" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E39" si="1">C3-D3</f>
         <v>0</v>
       </c>
       <c r="F3" s="2">
@@ -910,8 +917,9 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK3" s="2"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -922,11 +930,11 @@
         <v>9</v>
       </c>
       <c r="D4" s="12">
-        <f>SUM(F4:AJ4)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
@@ -966,8 +974,9 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK4" s="2"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -978,11 +987,11 @@
         <v>3</v>
       </c>
       <c r="D5" s="12">
-        <f>SUM(F5:AJ5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
@@ -1020,8 +1029,9 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK5" s="2"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1032,11 +1042,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="12">
-        <f>SUM(F6:AJ6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" s="2"/>
@@ -1072,8 +1082,9 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK6" s="2"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1084,11 +1095,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="12">
-        <f>SUM(F7:AJ7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" s="2"/>
@@ -1124,8 +1135,9 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK7" s="2"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1136,11 +1148,11 @@
         <v>11</v>
       </c>
       <c r="D8" s="12">
-        <f>SUM(F8:AJ8)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="2"/>
@@ -1180,8 +1192,9 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK8" s="2"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1192,11 +1205,11 @@
         <v>1</v>
       </c>
       <c r="D9" s="12">
-        <f>SUM(F9:AJ9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9" s="2"/>
@@ -1232,8 +1245,9 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK9" s="2"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1244,11 +1258,11 @@
         <v>12</v>
       </c>
       <c r="D10" s="12">
-        <f>SUM(F10:AJ10)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10" s="2"/>
@@ -1286,8 +1300,9 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK10" s="2"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1298,11 +1313,11 @@
         <v>6</v>
       </c>
       <c r="D11" s="12">
-        <f>SUM(F11:AJ11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
@@ -1340,8 +1355,9 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK11" s="2"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1352,11 +1368,11 @@
         <v>17</v>
       </c>
       <c r="D12" s="12">
-        <f>SUM(F12:AJ12)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="2"/>
@@ -1400,8 +1416,9 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK12" s="2"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1412,11 +1429,11 @@
         <v>7</v>
       </c>
       <c r="D13" s="12">
-        <f>SUM(F13:AJ13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" s="2"/>
@@ -1454,8 +1471,9 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK13" s="2"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1466,11 +1484,11 @@
         <v>40</v>
       </c>
       <c r="D14" s="12">
-        <f>SUM(F14:AJ14)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14" s="2"/>
@@ -1522,8 +1540,9 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK14" s="2"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1534,11 +1553,11 @@
         <v>2</v>
       </c>
       <c r="D15" s="12">
-        <f>SUM(F15:AJ15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" s="2"/>
@@ -1576,8 +1595,9 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK15" s="2"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1588,11 +1608,11 @@
         <v>7</v>
       </c>
       <c r="D16" s="12">
-        <f>SUM(F16:AJ16)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E16" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16" s="2"/>
@@ -1630,8 +1650,9 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK16" s="2"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1642,11 +1663,11 @@
         <v>6</v>
       </c>
       <c r="D17" s="12">
-        <f>SUM(F17:AJ17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17" s="2"/>
@@ -1684,8 +1705,9 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK17" s="2"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1696,11 +1718,11 @@
         <v>26</v>
       </c>
       <c r="D18" s="12">
-        <f>SUM(F18:AJ18)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18" s="2"/>
@@ -1746,8 +1768,9 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK18" s="2"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
@@ -1758,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="D19" s="12">
-        <f>SUM(F19:AJ19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
@@ -1796,8 +1819,9 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK19" s="2"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1808,11 +1832,11 @@
         <v>13</v>
       </c>
       <c r="D20" s="12">
-        <f>SUM(F20:AJ20)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E20" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F20" s="2"/>
@@ -1850,8 +1874,9 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK20" s="2"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1862,11 +1887,11 @@
         <v>18</v>
       </c>
       <c r="D21" s="12">
-        <f>SUM(F21:AJ21)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F21" s="2"/>
@@ -1910,8 +1935,9 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK21" s="2"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
@@ -1922,11 +1948,11 @@
         <v>0</v>
       </c>
       <c r="D22" s="12">
-        <f>SUM(F22:AJ22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F22" s="2"/>
@@ -1960,8 +1986,9 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK22" s="2"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>47</v>
       </c>
@@ -1972,11 +1999,11 @@
         <v>0</v>
       </c>
       <c r="D23" s="12">
-        <f>SUM(F23:AJ23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" s="2"/>
@@ -2010,8 +2037,9 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK23" s="2"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2022,11 +2050,11 @@
         <v>1</v>
       </c>
       <c r="D24" s="12">
-        <f>SUM(F24:AJ24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F24" s="2"/>
@@ -2060,11 +2088,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
-      <c r="AK24" t="s">
+      <c r="AK24" s="2"/>
+      <c r="AL24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2074,143 +2103,147 @@
         <v>191</v>
       </c>
       <c r="D25" s="12">
-        <f>SUM(F25:AJ25)</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="E25" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" ref="F25:M25" si="1">SUM(F2:F24)</f>
+        <f t="shared" ref="F25:M25" si="2">SUM(F2:F24)</f>
         <v>10</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" ref="L25" si="2">SUM(L2:L24)</f>
+        <f t="shared" ref="L25" si="3">SUM(L2:L24)</f>
         <v>9</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" ref="N25:O25" si="3">SUM(N2:N24)</f>
+        <f t="shared" ref="N25:O25" si="4">SUM(N2:N24)</f>
         <v>6</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" ref="P25:Q25" si="4">SUM(P2:P24)</f>
+        <f t="shared" ref="P25:Q25" si="5">SUM(P2:P24)</f>
         <v>11</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" ref="R25:S25" si="5">SUM(R2:R24)</f>
+        <f t="shared" ref="R25:S25" si="6">SUM(R2:R24)</f>
         <v>5</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="T25" s="8">
-        <f t="shared" ref="T25:U25" si="6">SUM(T2:T24)</f>
-        <v>8</v>
-      </c>
-      <c r="U25" s="8">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
+      <c r="T25" s="8">
+        <f t="shared" ref="T25:U25" si="7">SUM(T2:T24)</f>
+        <v>8</v>
+      </c>
+      <c r="U25" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
       <c r="V25" s="8">
-        <f t="shared" ref="V25:W25" si="7">SUM(V2:V24)</f>
+        <f t="shared" ref="V25:W25" si="8">SUM(V2:V24)</f>
         <v>5</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="X25" s="8">
-        <f t="shared" ref="X25:Y25" si="8">SUM(X2:X24)</f>
+        <f t="shared" ref="X25:Y25" si="9">SUM(X2:X24)</f>
         <v>7</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" ref="Z25:AA25" si="9">SUM(Z2:Z24)</f>
+        <f t="shared" ref="Z25:AA25" si="10">SUM(Z2:Z24)</f>
         <v>8</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="AB25" s="8">
-        <f t="shared" ref="AB25:AC25" si="10">SUM(AB2:AB24)</f>
+        <f t="shared" ref="AB25:AC25" si="11">SUM(AB2:AB24)</f>
         <v>7</v>
       </c>
       <c r="AC25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD25" s="8">
-        <f t="shared" ref="AD25:AE25" si="11">SUM(AD2:AD24)</f>
+        <f t="shared" ref="AD25:AE25" si="12">SUM(AD2:AD24)</f>
         <v>0</v>
       </c>
       <c r="AE25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF25" s="8">
-        <f t="shared" ref="AF25:AG25" si="12">SUM(AF2:AF24)</f>
+        <f t="shared" ref="AF25:AG25" si="13">SUM(AF2:AF24)</f>
         <v>0</v>
       </c>
       <c r="AG25" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH25" s="8">
-        <f t="shared" ref="AH25:AJ25" si="13">SUM(AH2:AH24)</f>
+        <f t="shared" ref="AH25:AK25" si="14">SUM(AH2:AH24)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="8">
-        <f t="shared" ref="AI25" si="14">SUM(AI2:AI24)</f>
+        <f t="shared" ref="AI25:AJ25" si="15">SUM(AI2:AI24)</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="9">
         <f>C25-D25</f>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -2221,11 +2254,11 @@
         <v>3</v>
       </c>
       <c r="D26" s="12">
-        <f>SUM(F26:AJ26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26" s="2"/>
@@ -2261,8 +2294,9 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK26" s="2"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -2273,11 +2307,11 @@
         <v>18</v>
       </c>
       <c r="D27" s="12">
-        <f>SUM(F27:AJ27)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F27" s="2"/>
@@ -2319,8 +2353,9 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK27" s="2"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -2331,11 +2366,11 @@
         <v>4</v>
       </c>
       <c r="D28" s="12">
-        <f>SUM(F28:AJ28)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F28" s="2"/>
@@ -2371,9 +2406,10 @@
         <v>4</v>
       </c>
       <c r="AJ28" s="2"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="AK28" s="2"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -2383,12 +2419,12 @@
         <v>3</v>
       </c>
       <c r="D29" s="12">
-        <f>SUM(F29:AJ29)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E29" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2421,8 +2457,11 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
@@ -2433,11 +2472,11 @@
         <v>4</v>
       </c>
       <c r="D30" s="12">
-        <f>SUM(F30:AJ30)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F30" s="2"/>
@@ -2473,8 +2512,9 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK30" s="2"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
@@ -2485,11 +2525,11 @@
         <v>12</v>
       </c>
       <c r="D31" s="12">
-        <f>SUM(F31:AJ31)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31" s="2"/>
@@ -2529,8 +2569,9 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK31" s="2"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>59</v>
       </c>
@@ -2541,11 +2582,11 @@
         <v>4</v>
       </c>
       <c r="D32" s="12">
-        <f>SUM(F32:AJ32)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32" s="2"/>
@@ -2581,8 +2622,9 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK32" s="2"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -2593,11 +2635,11 @@
         <v>5</v>
       </c>
       <c r="D33" s="12">
-        <f>SUM(F33:AJ33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F33" s="2"/>
@@ -2633,8 +2675,9 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK33" s="2"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>61</v>
       </c>
@@ -2645,12 +2688,12 @@
         <v>13</v>
       </c>
       <c r="D34" s="12">
-        <f>SUM(F34:AJ34)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2685,8 +2728,11 @@
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>62</v>
       </c>
@@ -2697,12 +2743,12 @@
         <v>6</v>
       </c>
       <c r="D35" s="12">
-        <f>SUM(F35:AJ35)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E35" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2735,8 +2781,11 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>63</v>
       </c>
@@ -2747,11 +2796,11 @@
         <v>2</v>
       </c>
       <c r="D36" s="12">
-        <f>SUM(F36:AJ36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F36" s="2"/>
@@ -2785,8 +2834,9 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK36" s="2"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>64</v>
       </c>
@@ -2797,11 +2847,11 @@
         <v>3</v>
       </c>
       <c r="D37" s="12">
-        <f>SUM(F37:AJ37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F37" s="2"/>
@@ -2835,8 +2885,9 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK37" s="2"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>65</v>
       </c>
@@ -2847,11 +2898,11 @@
         <v>3</v>
       </c>
       <c r="D38" s="12">
-        <f>SUM(F38:AJ38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F38" s="2"/>
@@ -2885,8 +2936,9 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK38" s="2"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2897,11 +2949,11 @@
         <v>28</v>
       </c>
       <c r="D39" s="12">
-        <f>SUM(F39:AJ39)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F39" s="2"/>
@@ -2945,11 +2997,12 @@
       <c r="AJ39" s="2">
         <v>5</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AK39" s="2"/>
+      <c r="AL39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2959,67 +3012,67 @@
         <v>108</v>
       </c>
       <c r="D40" s="12">
-        <f>SUM(F40:AJ40)</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="E40" s="12">
         <f>C40-D40</f>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" ref="F40:S40" si="15">SUM(F26:F39)</f>
+        <f t="shared" ref="F40:S40" si="16">SUM(F26:F39)</f>
         <v>0</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T40" s="8">
@@ -3027,72 +3080,76 @@
         <v>0</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" ref="U40:AC40" si="16">SUM(U26:U39)</f>
+        <f t="shared" ref="U40:AC40" si="17">SUM(U26:U39)</f>
         <v>0</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="AC40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" ref="AD40:AE40" si="17">SUM(AD26:AD39)</f>
+        <f t="shared" ref="AD40:AE40" si="18">SUM(AD26:AD39)</f>
         <v>15</v>
       </c>
       <c r="AE40" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="AF40" s="8">
-        <f t="shared" ref="AF40:AG40" si="18">SUM(AF26:AF39)</f>
+        <f t="shared" ref="AF40:AG40" si="19">SUM(AF26:AF39)</f>
         <v>15</v>
       </c>
       <c r="AG40" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AH40" s="8">
-        <f t="shared" ref="AH40:AJ40" si="19">SUM(AH26:AH39)</f>
+        <f t="shared" ref="AH40:AK40" si="20">SUM(AH26:AH39)</f>
         <v>5</v>
       </c>
       <c r="AI40" s="8">
-        <f t="shared" ref="AI40" si="20">SUM(AI26:AI39)</f>
+        <f t="shared" ref="AI40:AJ40" si="21">SUM(AI26:AI39)</f>
         <v>5</v>
       </c>
       <c r="AJ40" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="AK40" s="13">
+      <c r="AK40" s="8">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="AL40" s="13">
         <f>C40-D40</f>
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Development/javacore.xlsx
+++ b/Development/javacore.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>Java Object Class</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>1399/03/10</t>
+  </si>
+  <si>
+    <t>1399/03/11</t>
+  </si>
+  <si>
+    <t>1399/03/12</t>
+  </si>
+  <si>
+    <t>1399/03/17</t>
+  </si>
+  <si>
+    <t>1399/03/18</t>
   </si>
 </sst>
 </file>
@@ -683,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL40"/>
+  <dimension ref="A1:AP40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AB21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AJ21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK36" sqref="AK36"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,10 +709,10 @@
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="37" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="41" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -812,8 +824,20 @@
       <c r="AK1" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -824,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="12">
-        <f t="shared" ref="D2:D40" si="0">SUM(F2:AK2)</f>
+        <f>SUM(F2:AK2)</f>
         <v>6</v>
       </c>
       <c r="E2" s="12">
@@ -865,8 +889,12 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -877,7 +905,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D32" si="0">SUM(F3:AO3)</f>
         <v>2</v>
       </c>
       <c r="E3" s="12">
@@ -918,8 +946,12 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -975,8 +1007,12 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1030,8 +1066,12 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1083,8 +1123,12 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1136,8 +1180,12 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1193,8 +1241,12 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1246,8 +1298,12 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1301,8 +1357,12 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1356,8 +1416,12 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1417,8 +1481,12 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1472,8 +1540,12 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1541,8 +1613,12 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1596,8 +1672,12 @@
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1731,12 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1706,8 +1790,12 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1769,8 +1857,12 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
@@ -1820,8 +1912,12 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1875,8 +1971,12 @@
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1936,8 +2036,12 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
@@ -1987,8 +2091,12 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>47</v>
       </c>
@@ -2038,9 +2146,13 @@
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2051,11 +2163,11 @@
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2089,11 +2201,17 @@
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
-      <c r="AL24" t="s">
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2104,11 +2222,11 @@
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E25" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25:M25" si="2">SUM(F2:F24)</f>
@@ -2238,12 +2356,28 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="9">
+      <c r="AL25" s="8">
+        <f t="shared" ref="AL25:AO25" si="16">SUM(AL2:AL24)</f>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="8">
+        <f t="shared" ref="AM25:AN25" si="17">SUM(AM2:AM24)</f>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="8">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AP25" s="9">
         <f>C25-D25</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -2295,8 +2429,12 @@
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -2354,8 +2492,12 @@
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -2407,8 +2549,12 @@
       </c>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -2460,8 +2606,12 @@
       <c r="AK29" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
@@ -2513,8 +2663,12 @@
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
@@ -2570,8 +2724,12 @@
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>59</v>
       </c>
@@ -2623,8 +2781,12 @@
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -2635,7 +2797,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(F33:AO33)</f>
         <v>5</v>
       </c>
       <c r="E33" s="12">
@@ -2676,9 +2838,13 @@
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -2688,12 +2854,12 @@
         <v>13</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(F34:AO34)</f>
+        <v>13</v>
       </c>
       <c r="E34" s="12">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2731,9 +2897,17 @@
       <c r="AK34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="AL34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -2743,12 +2917,12 @@
         <v>6</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="D35:D39" si="18">SUM(F35:AO35)</f>
+        <v>6</v>
       </c>
       <c r="E35" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2784,8 +2958,14 @@
       <c r="AK35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>63</v>
       </c>
@@ -2793,15 +2973,15 @@
         <v>58</v>
       </c>
       <c r="C36" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="E36" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2835,9 +3015,15 @@
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="2"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -2847,12 +3033,12 @@
         <v>3</v>
       </c>
       <c r="D37" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="E37" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2886,9 +3072,17 @@
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO37" s="2"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -2898,12 +3092,12 @@
         <v>3</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="E38" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2937,9 +3131,15 @@
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -2949,12 +3149,12 @@
         <v>28</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="18"/>
+        <v>28</v>
       </c>
       <c r="E39" s="12">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2998,81 +3198,89 @@
         <v>5</v>
       </c>
       <c r="AK39" s="2"/>
-      <c r="AL39" t="s">
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>12</v>
+      </c>
+      <c r="AO39" s="2"/>
+      <c r="AP39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8">
         <f>SUM(C26:C39)</f>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D40" s="12">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <f>SUM(F40:AO40)</f>
+        <v>107</v>
       </c>
       <c r="E40" s="12">
         <f>C40-D40</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" ref="F40:S40" si="16">SUM(F26:F39)</f>
+        <f t="shared" ref="F40:S40" si="19">SUM(F26:F39)</f>
         <v>0</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T40" s="8">
@@ -3080,76 +3288,92 @@
         <v>0</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" ref="U40:AC40" si="17">SUM(U26:U39)</f>
+        <f t="shared" ref="U40:AC40" si="20">SUM(U26:U39)</f>
         <v>0</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W40" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y40" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z40" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA40" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AC40" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" ref="AD40:AE40" si="18">SUM(AD26:AD39)</f>
+        <f t="shared" ref="AD40:AE40" si="21">SUM(AD26:AD39)</f>
         <v>15</v>
       </c>
       <c r="AE40" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="AF40" s="8">
-        <f t="shared" ref="AF40:AG40" si="19">SUM(AF26:AF39)</f>
+        <f t="shared" ref="AF40:AG40" si="22">SUM(AF26:AF39)</f>
         <v>15</v>
       </c>
       <c r="AG40" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AH40" s="8">
-        <f t="shared" ref="AH40:AK40" si="20">SUM(AH26:AH39)</f>
+        <f t="shared" ref="AH40:AK40" si="23">SUM(AH26:AH39)</f>
         <v>5</v>
       </c>
       <c r="AI40" s="8">
-        <f t="shared" ref="AI40:AJ40" si="21">SUM(AI26:AI39)</f>
+        <f t="shared" ref="AI40:AJ40" si="24">SUM(AI26:AI39)</f>
         <v>5</v>
       </c>
       <c r="AJ40" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="AK40" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="AL40" s="13">
+      <c r="AL40" s="8">
+        <f t="shared" ref="AL40:AO40" si="25">SUM(AL26:AL39)</f>
+        <v>3</v>
+      </c>
+      <c r="AM40" s="8">
+        <f t="shared" ref="AM40:AN40" si="26">SUM(AM26:AM39)</f>
+        <v>10</v>
+      </c>
+      <c r="AN40" s="8">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="AO40" s="8">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="AP40" s="13">
         <f>C40-D40</f>
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
